--- a/VerveStacks_JPN/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_JPN/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_JPN\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8CFC93-3B20-47A6-814E-F3F56C0E4A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5851E5F-990F-4D50-9F63-3CDF5AF840F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="21600" windowHeight="12682" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="misc" sheetId="7" r:id="rId1"/>
@@ -422,10 +422,10 @@
     <t>$/GJ</t>
   </si>
   <si>
-    <t>~FI_T: USD10~FX~ACT_BND</t>
-  </si>
-  <si>
     <t>invcost</t>
+  </si>
+  <si>
+    <t>~FI_T: USD21~FX~ACT_BND</t>
   </si>
   <si>
     <t>process</t>
@@ -1537,8 +1537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034C1C47-C7B1-48B4-9602-2B825216B37E}">
   <dimension ref="B2:T18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -2036,9 +2036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5417F31-D792-47CD-82F2-E942FCB1F74A}">
   <dimension ref="A1:N91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
@@ -6700,7 +6698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12EA90E-43F0-4F26-A089-D51219939B11}">
   <dimension ref="B3:Y8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
@@ -6798,7 +6796,7 @@
         <v>62</v>
       </c>
       <c r="N4" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O4" s="24" t="s">
         <v>94</v>

--- a/VerveStacks_JPN/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_JPN/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_JPN\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5851E5F-990F-4D50-9F63-3CDF5AF840F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DDF899-DB67-4270-AD0D-9198634B92BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_JPN/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_JPN/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_JPN\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DDF899-DB67-4270-AD0D-9198634B92BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B8EBCE-43C3-41C2-A170-5856303F5513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_JPN/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_JPN/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_JPN\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B8EBCE-43C3-41C2-A170-5856303F5513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1234AD47-E9A7-4A15-B600-FB7204A1A95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_JPN/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_JPN/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_JPN\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1234AD47-E9A7-4A15-B600-FB7204A1A95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C13C062-4C59-4F52-BAD6-9077AE97048C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
